--- a/Burndownchart_Mondpichl.xlsx
+++ b/Burndownchart_Mondpichl.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elias\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Schule\5AHWII\SWP\Projekt\Ferienspass\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6BD1AAE-D2C7-48C0-9885-C6B165EE4C6A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E3A83A1-2F2A-4837-A380-57B31FE35FAC}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{880ECEA2-B438-484A-9CBA-91374F2777E2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{880ECEA2-B438-484A-9CBA-91374F2777E2}"/>
   </bookViews>
   <sheets>
     <sheet name="Current Iteration" sheetId="1" r:id="rId1"/>
@@ -76,21 +76,6 @@
   </si>
   <si>
     <t>Product Backlog Items</t>
-  </si>
-  <si>
-    <t>Feature 1</t>
-  </si>
-  <si>
-    <t>Feature 2</t>
-  </si>
-  <si>
-    <t>Feature 3</t>
-  </si>
-  <si>
-    <t>Feature 4</t>
-  </si>
-  <si>
-    <t>Feature 5</t>
   </si>
   <si>
     <t>Feature 6</t>
@@ -196,6 +181,21 @@
   </si>
   <si>
     <t>Beginning Balance</t>
+  </si>
+  <si>
+    <t>Register</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>User-Datenverwaltung</t>
+  </si>
+  <si>
+    <t>Admin-Datenverwaltung</t>
+  </si>
+  <si>
+    <t>Admin-Kursverwaltung</t>
   </si>
 </sst>
 </file>
@@ -839,6 +839,15 @@
     <xf numFmtId="10" fontId="1" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -850,15 +859,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1055,7 +1055,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>123</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>#N/A</c:v>
@@ -1248,67 +1248,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>123</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>116.85</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>110.69999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>104.54999999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>98.399999999999977</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>92.249999999999972</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>86.099999999999966</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>79.94999999999996</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>73.799999999999955</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>67.649999999999949</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>61.49999999999995</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>55.349999999999952</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>49.199999999999953</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>43.049999999999955</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>36.899999999999956</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>30.749999999999957</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>24.599999999999959</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>18.44999999999996</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>12.29999999999996</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>6.1499999999999595</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>-4.0856207306205761E-14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1785,7 +1785,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>123</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>#N/A</c:v>
@@ -2027,67 +2027,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>123</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>116.85</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>110.69999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>104.54999999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>98.399999999999977</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>92.249999999999972</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>86.099999999999966</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>79.94999999999996</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>73.799999999999955</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>67.649999999999949</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>61.49999999999995</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>55.349999999999952</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>49.199999999999953</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>43.049999999999955</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>36.899999999999956</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>30.749999999999957</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>24.599999999999959</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>18.44999999999996</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>12.29999999999996</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>6.1499999999999595</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>-4.0856207306205761E-14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3902,20 +3902,20 @@
       <pane xSplit="2" ySplit="7" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="G2" sqref="G2"/>
+      <selection pane="bottomRight" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="70.6640625" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" customWidth="1"/>
-    <col min="3" max="22" width="5.6640625" customWidth="1"/>
-    <col min="24" max="24" width="18.109375" customWidth="1"/>
+    <col min="1" max="1" width="70.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="22" width="5.7109375" customWidth="1"/>
+    <col min="24" max="24" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="41"/>
-      <c r="B1" s="41"/>
+    <row r="1" spans="1:24" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="37"/>
+      <c r="B1" s="37"/>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
@@ -3939,18 +3939,18 @@
       <c r="W1" s="15"/>
       <c r="X1" s="16"/>
     </row>
-    <row r="2" spans="1:24" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="41"/>
-      <c r="B2" s="41"/>
-      <c r="C2" s="37" t="s">
-        <v>35</v>
-      </c>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
+    <row r="2" spans="1:24" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="37"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
       <c r="G2" s="33"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
       <c r="J2" s="6"/>
       <c r="K2" s="6"/>
       <c r="L2" s="6"/>
@@ -3967,21 +3967,21 @@
       <c r="W2" s="15"/>
       <c r="X2" s="16"/>
     </row>
-    <row r="3" spans="1:24" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:24" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="34"/>
       <c r="B3" s="34"/>
-      <c r="C3" s="37" t="s">
-        <v>36</v>
-      </c>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
+      <c r="C3" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
       <c r="G3" s="33">
         <f>B38</f>
-        <v>0</v>
-      </c>
-      <c r="H3" s="40"/>
-      <c r="I3" s="40"/>
+        <v>123</v>
+      </c>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
@@ -3998,15 +3998,15 @@
       <c r="W3" s="15"/>
       <c r="X3" s="16"/>
     </row>
-    <row r="4" spans="1:24" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:24" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="34"/>
       <c r="B4" s="34"/>
-      <c r="C4" s="37" t="s">
-        <v>37</v>
-      </c>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
+      <c r="C4" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
       <c r="G4" s="33"/>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
@@ -4026,7 +4026,7 @@
       <c r="W4" s="15"/>
       <c r="X4" s="16"/>
     </row>
-    <row r="5" spans="1:24" ht="97.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:24" ht="97.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="34" t="s">
         <v>0</v>
       </c>
@@ -4054,44 +4054,44 @@
       <c r="W5" s="15"/>
       <c r="X5" s="16"/>
     </row>
-    <row r="6" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="43" t="s">
+    <row r="6" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="43"/>
-      <c r="C6" s="42" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42"/>
-      <c r="H6" s="42"/>
-      <c r="I6" s="42"/>
-      <c r="J6" s="42"/>
-      <c r="K6" s="42"/>
-      <c r="L6" s="42"/>
-      <c r="M6" s="42"/>
-      <c r="N6" s="42"/>
-      <c r="O6" s="42"/>
-      <c r="P6" s="42"/>
-      <c r="Q6" s="42"/>
-      <c r="R6" s="42"/>
-      <c r="S6" s="42"/>
-      <c r="T6" s="42"/>
-      <c r="U6" s="42"/>
-      <c r="V6" s="42"/>
-      <c r="W6" s="38" t="s">
-        <v>41</v>
-      </c>
-      <c r="X6" s="39"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="38"/>
+      <c r="L6" s="38"/>
+      <c r="M6" s="38"/>
+      <c r="N6" s="38"/>
+      <c r="O6" s="38"/>
+      <c r="P6" s="38"/>
+      <c r="Q6" s="38"/>
+      <c r="R6" s="38"/>
+      <c r="S6" s="38"/>
+      <c r="T6" s="38"/>
+      <c r="U6" s="38"/>
+      <c r="V6" s="38"/>
+      <c r="W6" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="X6" s="42"/>
     </row>
-    <row r="7" spans="1:24" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:24" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C7" s="1">
         <v>1</v>
@@ -4154,17 +4154,19 @@
         <v>20</v>
       </c>
       <c r="W7" s="14" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="X7" s="9" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:24" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:24" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="18"/>
+        <v>38</v>
+      </c>
+      <c r="B8" s="18">
+        <v>34</v>
+      </c>
       <c r="C8" s="19"/>
       <c r="D8" s="20"/>
       <c r="E8" s="19"/>
@@ -4187,18 +4189,20 @@
       <c r="V8" s="20"/>
       <c r="W8" s="27">
         <f>B8-SUM(C8:V8)</f>
+        <v>34</v>
+      </c>
+      <c r="X8" s="17">
+        <f>IFERROR(1-(W8/B8),"")</f>
         <v>0</v>
       </c>
-      <c r="X8" s="17" t="str">
-        <f>IFERROR(1-(W8/B8),"")</f>
-        <v/>
-      </c>
     </row>
-    <row r="9" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="21"/>
+        <v>39</v>
+      </c>
+      <c r="B9" s="21">
+        <v>34</v>
+      </c>
       <c r="C9" s="22"/>
       <c r="D9" s="23"/>
       <c r="E9" s="22"/>
@@ -4221,18 +4225,20 @@
       <c r="V9" s="23"/>
       <c r="W9" s="28">
         <f t="shared" ref="W9:W37" si="0">B9-SUM(C9:V9)</f>
+        <v>34</v>
+      </c>
+      <c r="X9" s="17">
+        <f>IFERROR(1-(W9/B9),"")</f>
         <v>0</v>
       </c>
-      <c r="X9" s="17" t="str">
-        <f>IFERROR(1-(W9/B9),"")</f>
-        <v/>
-      </c>
     </row>
-    <row r="10" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="21"/>
+        <v>40</v>
+      </c>
+      <c r="B10" s="21">
+        <v>21</v>
+      </c>
       <c r="C10" s="22"/>
       <c r="D10" s="23"/>
       <c r="E10" s="22"/>
@@ -4255,18 +4261,20 @@
       <c r="V10" s="23"/>
       <c r="W10" s="28">
         <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="X10" s="17">
+        <f t="shared" ref="X10:X38" si="1">IFERROR(1-(W10/B10),"")</f>
         <v>0</v>
       </c>
-      <c r="X10" s="17" t="str">
-        <f t="shared" ref="X10:X38" si="1">IFERROR(1-(W10/B10),"")</f>
-        <v/>
-      </c>
     </row>
-    <row r="11" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="21"/>
+        <v>41</v>
+      </c>
+      <c r="B11" s="21">
+        <v>13</v>
+      </c>
       <c r="C11" s="22"/>
       <c r="D11" s="23"/>
       <c r="E11" s="22"/>
@@ -4289,18 +4297,20 @@
       <c r="V11" s="23"/>
       <c r="W11" s="28">
         <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="X11" s="17">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="X11" s="17" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
     </row>
-    <row r="12" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" s="21"/>
+        <v>42</v>
+      </c>
+      <c r="B12" s="21">
+        <v>21</v>
+      </c>
       <c r="C12" s="22"/>
       <c r="D12" s="23"/>
       <c r="E12" s="22"/>
@@ -4323,16 +4333,16 @@
       <c r="V12" s="23"/>
       <c r="W12" s="28">
         <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="X12" s="17">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="X12" s="17" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
     </row>
-    <row r="13" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B13" s="21"/>
       <c r="C13" s="22"/>
@@ -4364,9 +4374,9 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B14" s="21"/>
       <c r="C14" s="22"/>
@@ -4398,9 +4408,9 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B15" s="21"/>
       <c r="C15" s="22"/>
@@ -4432,9 +4442,9 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B16" s="21"/>
       <c r="C16" s="22"/>
@@ -4466,9 +4476,9 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B17" s="21"/>
       <c r="C17" s="22"/>
@@ -4500,9 +4510,9 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B18" s="21"/>
       <c r="C18" s="22"/>
@@ -4534,9 +4544,9 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B19" s="21"/>
       <c r="C19" s="22"/>
@@ -4568,9 +4578,9 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B20" s="21"/>
       <c r="C20" s="22"/>
@@ -4602,9 +4612,9 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B21" s="21"/>
       <c r="C21" s="22"/>
@@ -4636,9 +4646,9 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B22" s="21"/>
       <c r="C22" s="22"/>
@@ -4670,9 +4680,9 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B23" s="21"/>
       <c r="C23" s="22"/>
@@ -4704,9 +4714,9 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B24" s="21"/>
       <c r="C24" s="22"/>
@@ -4738,9 +4748,9 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B25" s="21"/>
       <c r="C25" s="22"/>
@@ -4772,9 +4782,9 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B26" s="21"/>
       <c r="C26" s="22"/>
@@ -4806,9 +4816,9 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B27" s="21"/>
       <c r="C27" s="22"/>
@@ -4840,9 +4850,9 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B28" s="21"/>
       <c r="C28" s="22"/>
@@ -4874,9 +4884,9 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B29" s="21"/>
       <c r="C29" s="22"/>
@@ -4908,9 +4918,9 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B30" s="21"/>
       <c r="C30" s="22"/>
@@ -4942,9 +4952,9 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B31" s="21"/>
       <c r="C31" s="22"/>
@@ -4976,9 +4986,9 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B32" s="21"/>
       <c r="C32" s="22"/>
@@ -5010,9 +5020,9 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B33" s="21"/>
       <c r="C33" s="22"/>
@@ -5044,9 +5054,9 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B34" s="21"/>
       <c r="C34" s="22"/>
@@ -5078,9 +5088,9 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B35" s="21"/>
       <c r="C35" s="22"/>
@@ -5112,9 +5122,9 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B36" s="21"/>
       <c r="C36" s="22"/>
@@ -5146,9 +5156,9 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="5" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B37" s="24"/>
       <c r="C37" s="25"/>
@@ -5180,13 +5190,13 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:24" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A38" s="7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B38" s="10">
         <f>SUM(B8:B37)</f>
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="C38" s="11" t="e">
         <f>IFERROR(IF(B38-SUM(C8:C37)=B38,NA(),B38-SUM(C8:C37)),NA())</f>
@@ -5270,105 +5280,105 @@
       </c>
       <c r="W38" s="35">
         <f>SUM(W8:W37)</f>
+        <v>123</v>
+      </c>
+      <c r="X38" s="30">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="X38" s="30" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
     </row>
-    <row r="39" spans="1:24" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="8" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B39" s="12">
         <f>SUM(B8:B37)</f>
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="C39" s="13">
         <f>IFERROR((IF(B39-($B$38/$G$4) &lt; 0,"-", B39-($B$38/$G$4))),IFERROR(B39-($B$38/20),"-"))</f>
-        <v>0</v>
+        <v>116.85</v>
       </c>
       <c r="D39" s="13">
         <f t="shared" ref="D39:V39" si="3">IFERROR((IF(C39-($B$38/$G$4) &lt; 0,"-", C39-($B$38/$G$4))),IFERROR(C39-($B$38/20),"-"))</f>
-        <v>0</v>
+        <v>110.69999999999999</v>
       </c>
       <c r="E39" s="13">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>104.54999999999998</v>
       </c>
       <c r="F39" s="13">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>98.399999999999977</v>
       </c>
       <c r="G39" s="13">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>92.249999999999972</v>
       </c>
       <c r="H39" s="13">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>86.099999999999966</v>
       </c>
       <c r="I39" s="13">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>79.94999999999996</v>
       </c>
       <c r="J39" s="13">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>73.799999999999955</v>
       </c>
       <c r="K39" s="13">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>67.649999999999949</v>
       </c>
       <c r="L39" s="13">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>61.49999999999995</v>
       </c>
       <c r="M39" s="13">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>55.349999999999952</v>
       </c>
       <c r="N39" s="13">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>49.199999999999953</v>
       </c>
       <c r="O39" s="13">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>43.049999999999955</v>
       </c>
       <c r="P39" s="13">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>36.899999999999956</v>
       </c>
       <c r="Q39" s="13">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>30.749999999999957</v>
       </c>
       <c r="R39" s="13">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>24.599999999999959</v>
       </c>
       <c r="S39" s="13">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>18.44999999999996</v>
       </c>
       <c r="T39" s="13">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>12.29999999999996</v>
       </c>
       <c r="U39" s="13">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>6.1499999999999595</v>
       </c>
       <c r="V39" s="13">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-4.0856207306205761E-14</v>
       </c>
       <c r="W39" s="31"/>
       <c r="X39" s="32"/>
     </row>
-    <row r="40" spans="1:24" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="40" spans="1:24" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="A1:B2"/>
@@ -5432,7 +5442,7 @@
       <selection activeCell="T37" sqref="T37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/Burndownchart_Mondpichl.xlsx
+++ b/Burndownchart_Mondpichl.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Schule\5AHWII\SWP\Projekt\Ferienspass\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E3A83A1-2F2A-4837-A380-57B31FE35FAC}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2C7F3F3-5DC4-4C05-A93A-D738F81D36C2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{880ECEA2-B438-484A-9CBA-91374F2777E2}"/>
   </bookViews>
@@ -1058,7 +1058,7 @@
                   <c:v>123</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>#N/A</c:v>
+                  <c:v>115.44444444444444</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>#N/A</c:v>
@@ -1788,7 +1788,7 @@
                   <c:v>123</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>#N/A</c:v>
+                  <c:v>115.44444444444444</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>#N/A</c:v>
@@ -3902,7 +3902,7 @@
       <pane xSplit="2" ySplit="7" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="B9" sqref="B9"/>
+      <selection pane="bottomRight" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4167,7 +4167,10 @@
       <c r="B8" s="18">
         <v>34</v>
       </c>
-      <c r="C8" s="19"/>
+      <c r="C8" s="19">
+        <f>B8/9*2</f>
+        <v>7.5555555555555554</v>
+      </c>
       <c r="D8" s="20"/>
       <c r="E8" s="19"/>
       <c r="F8" s="20"/>
@@ -4189,11 +4192,11 @@
       <c r="V8" s="20"/>
       <c r="W8" s="27">
         <f>B8-SUM(C8:V8)</f>
-        <v>34</v>
+        <v>26.444444444444443</v>
       </c>
       <c r="X8" s="17">
         <f>IFERROR(1-(W8/B8),"")</f>
-        <v>0</v>
+        <v>0.22222222222222232</v>
       </c>
     </row>
     <row r="9" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -5198,9 +5201,9 @@
         <f>SUM(B8:B37)</f>
         <v>123</v>
       </c>
-      <c r="C38" s="11" t="e">
+      <c r="C38" s="11">
         <f>IFERROR(IF(B38-SUM(C8:C37)=B38,NA(),B38-SUM(C8:C37)),NA())</f>
-        <v>#N/A</v>
+        <v>115.44444444444444</v>
       </c>
       <c r="D38" s="11" t="e">
         <f t="shared" ref="D38:V38" si="2">IFERROR(IF(C38-SUM(D8:D37)=C38,NA(),C38-SUM(D8:D37)),NA())</f>
@@ -5280,11 +5283,11 @@
       </c>
       <c r="W38" s="35">
         <f>SUM(W8:W37)</f>
-        <v>123</v>
+        <v>115.44444444444444</v>
       </c>
       <c r="X38" s="30">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6.1427280939476026E-2</v>
       </c>
     </row>
     <row r="39" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">

--- a/Burndownchart_Mondpichl.xlsx
+++ b/Burndownchart_Mondpichl.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Schule\5AHWII\SWP\Projekt\Ferienspass\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2C7F3F3-5DC4-4C05-A93A-D738F81D36C2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DE67B83-FE43-45B7-A078-62850C73D12B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{880ECEA2-B438-484A-9CBA-91374F2777E2}"/>
   </bookViews>
@@ -1058,7 +1058,7 @@
                   <c:v>123</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>115.44444444444444</c:v>
+                  <c:v>106</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>#N/A</c:v>
@@ -1788,7 +1788,7 @@
                   <c:v>123</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>115.44444444444444</c:v>
+                  <c:v>106</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>#N/A</c:v>
@@ -3902,7 +3902,7 @@
       <pane xSplit="2" ySplit="7" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomRight" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4168,8 +4168,8 @@
         <v>34</v>
       </c>
       <c r="C8" s="19">
-        <f>B8/9*2</f>
-        <v>7.5555555555555554</v>
+        <f>B8/9*4.5</f>
+        <v>17</v>
       </c>
       <c r="D8" s="20"/>
       <c r="E8" s="19"/>
@@ -4192,11 +4192,11 @@
       <c r="V8" s="20"/>
       <c r="W8" s="27">
         <f>B8-SUM(C8:V8)</f>
-        <v>26.444444444444443</v>
+        <v>17</v>
       </c>
       <c r="X8" s="17">
         <f>IFERROR(1-(W8/B8),"")</f>
-        <v>0.22222222222222232</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="9" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -5203,7 +5203,7 @@
       </c>
       <c r="C38" s="11">
         <f>IFERROR(IF(B38-SUM(C8:C37)=B38,NA(),B38-SUM(C8:C37)),NA())</f>
-        <v>115.44444444444444</v>
+        <v>106</v>
       </c>
       <c r="D38" s="11" t="e">
         <f t="shared" ref="D38:V38" si="2">IFERROR(IF(C38-SUM(D8:D37)=C38,NA(),C38-SUM(D8:D37)),NA())</f>
@@ -5283,11 +5283,11 @@
       </c>
       <c r="W38" s="35">
         <f>SUM(W8:W37)</f>
-        <v>115.44444444444444</v>
+        <v>106</v>
       </c>
       <c r="X38" s="30">
         <f t="shared" si="1"/>
-        <v>6.1427280939476026E-2</v>
+        <v>0.13821138211382111</v>
       </c>
     </row>
     <row r="39" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">

--- a/Burndownchart_Mondpichl.xlsx
+++ b/Burndownchart_Mondpichl.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Schule\5AHWII\SWP\Projekt\Ferienspass\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josip\Documents\5AHWII\SWP\CCC_Projekt\Ferienspass\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E3A83A1-2F2A-4837-A380-57B31FE35FAC}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDDAADFC-DA95-412A-AEC4-10AF4EFDC07A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{880ECEA2-B438-484A-9CBA-91374F2777E2}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="1" xr2:uid="{880ECEA2-B438-484A-9CBA-91374F2777E2}"/>
   </bookViews>
   <sheets>
     <sheet name="Current Iteration" sheetId="1" r:id="rId1"/>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Burndown Chart</t>
   </si>
@@ -76,81 +76,6 @@
   </si>
   <si>
     <t>Product Backlog Items</t>
-  </si>
-  <si>
-    <t>Feature 6</t>
-  </si>
-  <si>
-    <t>Feature 7</t>
-  </si>
-  <si>
-    <t>Feature 8</t>
-  </si>
-  <si>
-    <t>Feature 9</t>
-  </si>
-  <si>
-    <t>Feature 10</t>
-  </si>
-  <si>
-    <t>Feature 11</t>
-  </si>
-  <si>
-    <t>Feature 12</t>
-  </si>
-  <si>
-    <t>Feature 13</t>
-  </si>
-  <si>
-    <t>Feature 14</t>
-  </si>
-  <si>
-    <t>Feature 15</t>
-  </si>
-  <si>
-    <t>Feature 16</t>
-  </si>
-  <si>
-    <t>Feature 17</t>
-  </si>
-  <si>
-    <t>Feature 18</t>
-  </si>
-  <si>
-    <t>Feature 19</t>
-  </si>
-  <si>
-    <t>Feature 20</t>
-  </si>
-  <si>
-    <t>Feature 21</t>
-  </si>
-  <si>
-    <t>Feature 22</t>
-  </si>
-  <si>
-    <t>Feature 23</t>
-  </si>
-  <si>
-    <t>Feature 24</t>
-  </si>
-  <si>
-    <t>Feature 25</t>
-  </si>
-  <si>
-    <t>Feature 26</t>
-  </si>
-  <si>
-    <t>Feature 27</t>
-  </si>
-  <si>
-    <t>Feature 28</t>
-  </si>
-  <si>
-    <t>Feature 29</t>
-  </si>
-  <si>
-    <t>Feature 30</t>
   </si>
   <si>
     <t>Effort Remaining</t>
@@ -187,15 +112,6 @@
   </si>
   <si>
     <t>Login</t>
-  </si>
-  <si>
-    <t>User-Datenverwaltung</t>
-  </si>
-  <si>
-    <t>Admin-Datenverwaltung</t>
-  </si>
-  <si>
-    <t>Admin-Kursverwaltung</t>
   </si>
 </sst>
 </file>
@@ -1055,7 +971,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>123</c:v>
+                  <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>#N/A</c:v>
@@ -1248,67 +1164,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>123</c:v>
+                  <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>116.85</c:v>
+                  <c:v>64.599999999999994</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>110.69999999999999</c:v>
+                  <c:v>61.199999999999996</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>104.54999999999998</c:v>
+                  <c:v>57.8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>98.399999999999977</c:v>
+                  <c:v>54.4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>92.249999999999972</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>86.099999999999966</c:v>
+                  <c:v>47.6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>79.94999999999996</c:v>
+                  <c:v>44.2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>73.799999999999955</c:v>
+                  <c:v>40.800000000000004</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>67.649999999999949</c:v>
+                  <c:v>37.400000000000006</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>61.49999999999995</c:v>
+                  <c:v>34.000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>55.349999999999952</c:v>
+                  <c:v>30.600000000000009</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>49.199999999999953</c:v>
+                  <c:v>27.20000000000001</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43.049999999999955</c:v>
+                  <c:v>23.800000000000011</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>36.899999999999956</c:v>
+                  <c:v>20.400000000000013</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>30.749999999999957</c:v>
+                  <c:v>17.000000000000014</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>24.599999999999959</c:v>
+                  <c:v>13.600000000000014</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>18.44999999999996</c:v>
+                  <c:v>10.200000000000014</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>12.29999999999996</c:v>
+                  <c:v>6.8000000000000131</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>6.1499999999999595</c:v>
+                  <c:v>3.4000000000000132</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-4.0856207306205761E-14</c:v>
+                  <c:v>1.3322676295501878E-14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1785,7 +1701,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>123</c:v>
+                  <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>#N/A</c:v>
@@ -2027,67 +1943,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>123</c:v>
+                  <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>116.85</c:v>
+                  <c:v>64.599999999999994</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>110.69999999999999</c:v>
+                  <c:v>61.199999999999996</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>104.54999999999998</c:v>
+                  <c:v>57.8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>98.399999999999977</c:v>
+                  <c:v>54.4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>92.249999999999972</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>86.099999999999966</c:v>
+                  <c:v>47.6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>79.94999999999996</c:v>
+                  <c:v>44.2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>73.799999999999955</c:v>
+                  <c:v>40.800000000000004</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>67.649999999999949</c:v>
+                  <c:v>37.400000000000006</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>61.49999999999995</c:v>
+                  <c:v>34.000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>55.349999999999952</c:v>
+                  <c:v>30.600000000000009</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>49.199999999999953</c:v>
+                  <c:v>27.20000000000001</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43.049999999999955</c:v>
+                  <c:v>23.800000000000011</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>36.899999999999956</c:v>
+                  <c:v>20.400000000000013</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>30.749999999999957</c:v>
+                  <c:v>17.000000000000014</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>24.599999999999959</c:v>
+                  <c:v>13.600000000000014</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>18.44999999999996</c:v>
+                  <c:v>10.200000000000014</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>12.29999999999996</c:v>
+                  <c:v>6.8000000000000131</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>6.1499999999999595</c:v>
+                  <c:v>3.4000000000000132</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-4.0856207306205761E-14</c:v>
+                  <c:v>1.3322676295501878E-14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3898,22 +3814,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EE633DE-FC74-4926-B2DF-316D2130537E}">
   <dimension ref="A1:X40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="2" ySplit="7" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="B9" sqref="B9"/>
+      <selection pane="bottomRight" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="70.7109375" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="22" width="5.7109375" customWidth="1"/>
-    <col min="24" max="24" width="18.140625" customWidth="1"/>
+    <col min="1" max="1" width="70.73046875" customWidth="1"/>
+    <col min="2" max="2" width="15.73046875" customWidth="1"/>
+    <col min="3" max="22" width="5.73046875" customWidth="1"/>
+    <col min="24" max="24" width="18.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:24" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A1" s="37"/>
       <c r="B1" s="37"/>
       <c r="C1" s="6"/>
@@ -3939,11 +3855,11 @@
       <c r="W1" s="15"/>
       <c r="X1" s="16"/>
     </row>
-    <row r="2" spans="1:24" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:24" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A2" s="37"/>
       <c r="B2" s="37"/>
       <c r="C2" s="40" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="D2" s="40"/>
       <c r="E2" s="40"/>
@@ -3967,18 +3883,18 @@
       <c r="W2" s="15"/>
       <c r="X2" s="16"/>
     </row>
-    <row r="3" spans="1:24" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:24" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A3" s="34"/>
       <c r="B3" s="34"/>
       <c r="C3" s="40" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="D3" s="40"/>
       <c r="E3" s="40"/>
       <c r="F3" s="40"/>
       <c r="G3" s="33">
         <f>B38</f>
-        <v>123</v>
+        <v>68</v>
       </c>
       <c r="H3" s="43"/>
       <c r="I3" s="43"/>
@@ -3998,11 +3914,11 @@
       <c r="W3" s="15"/>
       <c r="X3" s="16"/>
     </row>
-    <row r="4" spans="1:24" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:24" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A4" s="34"/>
       <c r="B4" s="34"/>
       <c r="C4" s="40" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="D4" s="40"/>
       <c r="E4" s="40"/>
@@ -4026,7 +3942,7 @@
       <c r="W4" s="15"/>
       <c r="X4" s="16"/>
     </row>
-    <row r="5" spans="1:24" ht="97.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" ht="97.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A5" s="34" t="s">
         <v>0</v>
       </c>
@@ -4054,13 +3970,13 @@
       <c r="W5" s="15"/>
       <c r="X5" s="16"/>
     </row>
-    <row r="6" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A6" s="39" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="39"/>
       <c r="C6" s="38" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="D6" s="38"/>
       <c r="E6" s="38"/>
@@ -4082,16 +3998,16 @@
       <c r="U6" s="38"/>
       <c r="V6" s="38"/>
       <c r="W6" s="41" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="X6" s="42"/>
     </row>
-    <row r="7" spans="1:24" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="C7" s="1">
         <v>1</v>
@@ -4154,15 +4070,15 @@
         <v>20</v>
       </c>
       <c r="W7" s="14" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="X7" s="9" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:24" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.6">
       <c r="A8" s="3" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="B8" s="18">
         <v>34</v>
@@ -4196,9 +4112,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A9" s="4" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="B9" s="21">
         <v>34</v>
@@ -4232,13 +4148,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B10" s="21">
-        <v>21</v>
-      </c>
+    <row r="10" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A10" s="4"/>
+      <c r="B10" s="21"/>
       <c r="C10" s="22"/>
       <c r="D10" s="23"/>
       <c r="E10" s="22"/>
@@ -4261,20 +4173,16 @@
       <c r="V10" s="23"/>
       <c r="W10" s="28">
         <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="X10" s="17">
+        <v>0</v>
+      </c>
+      <c r="X10" s="17" t="str">
         <f t="shared" ref="X10:X38" si="1">IFERROR(1-(W10/B10),"")</f>
-        <v>0</v>
+        <v/>
       </c>
     </row>
-    <row r="11" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B11" s="21">
-        <v>13</v>
-      </c>
+    <row r="11" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A11" s="4"/>
+      <c r="B11" s="21"/>
       <c r="C11" s="22"/>
       <c r="D11" s="23"/>
       <c r="E11" s="22"/>
@@ -4297,20 +4205,16 @@
       <c r="V11" s="23"/>
       <c r="W11" s="28">
         <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="X11" s="17">
+        <v>0</v>
+      </c>
+      <c r="X11" s="17" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v/>
       </c>
     </row>
-    <row r="12" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B12" s="21">
-        <v>21</v>
-      </c>
+    <row r="12" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A12" s="4"/>
+      <c r="B12" s="21"/>
       <c r="C12" s="22"/>
       <c r="D12" s="23"/>
       <c r="E12" s="22"/>
@@ -4333,17 +4237,15 @@
       <c r="V12" s="23"/>
       <c r="W12" s="28">
         <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="X12" s="17">
+        <v>0</v>
+      </c>
+      <c r="X12" s="17" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v/>
       </c>
     </row>
-    <row r="13" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
-        <v>3</v>
-      </c>
+    <row r="13" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A13" s="4"/>
       <c r="B13" s="21"/>
       <c r="C13" s="22"/>
       <c r="D13" s="23"/>
@@ -4374,10 +4276,8 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
-        <v>4</v>
-      </c>
+    <row r="14" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A14" s="4"/>
       <c r="B14" s="21"/>
       <c r="C14" s="22"/>
       <c r="D14" s="23"/>
@@ -4408,10 +4308,8 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
-        <v>5</v>
-      </c>
+    <row r="15" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A15" s="4"/>
       <c r="B15" s="21"/>
       <c r="C15" s="22"/>
       <c r="D15" s="23"/>
@@ -4442,10 +4340,8 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="4" t="s">
-        <v>6</v>
-      </c>
+    <row r="16" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A16" s="4"/>
       <c r="B16" s="21"/>
       <c r="C16" s="22"/>
       <c r="D16" s="23"/>
@@ -4476,10 +4372,8 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="4" t="s">
-        <v>7</v>
-      </c>
+    <row r="17" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A17" s="4"/>
       <c r="B17" s="21"/>
       <c r="C17" s="22"/>
       <c r="D17" s="23"/>
@@ -4510,10 +4404,8 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="4" t="s">
-        <v>8</v>
-      </c>
+    <row r="18" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A18" s="4"/>
       <c r="B18" s="21"/>
       <c r="C18" s="22"/>
       <c r="D18" s="23"/>
@@ -4544,10 +4436,8 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="4" t="s">
-        <v>9</v>
-      </c>
+    <row r="19" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A19" s="4"/>
       <c r="B19" s="21"/>
       <c r="C19" s="22"/>
       <c r="D19" s="23"/>
@@ -4578,10 +4468,8 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="4" t="s">
-        <v>10</v>
-      </c>
+    <row r="20" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A20" s="4"/>
       <c r="B20" s="21"/>
       <c r="C20" s="22"/>
       <c r="D20" s="23"/>
@@ -4612,10 +4500,8 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="4" t="s">
-        <v>11</v>
-      </c>
+    <row r="21" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A21" s="4"/>
       <c r="B21" s="21"/>
       <c r="C21" s="22"/>
       <c r="D21" s="23"/>
@@ -4646,10 +4532,8 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="4" t="s">
-        <v>12</v>
-      </c>
+    <row r="22" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A22" s="4"/>
       <c r="B22" s="21"/>
       <c r="C22" s="22"/>
       <c r="D22" s="23"/>
@@ -4680,10 +4564,8 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="4" t="s">
-        <v>13</v>
-      </c>
+    <row r="23" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A23" s="4"/>
       <c r="B23" s="21"/>
       <c r="C23" s="22"/>
       <c r="D23" s="23"/>
@@ -4714,10 +4596,8 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="4" t="s">
-        <v>14</v>
-      </c>
+    <row r="24" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A24" s="4"/>
       <c r="B24" s="21"/>
       <c r="C24" s="22"/>
       <c r="D24" s="23"/>
@@ -4748,10 +4628,8 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="4" t="s">
-        <v>15</v>
-      </c>
+    <row r="25" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A25" s="4"/>
       <c r="B25" s="21"/>
       <c r="C25" s="22"/>
       <c r="D25" s="23"/>
@@ -4782,10 +4660,8 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="4" t="s">
-        <v>16</v>
-      </c>
+    <row r="26" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A26" s="4"/>
       <c r="B26" s="21"/>
       <c r="C26" s="22"/>
       <c r="D26" s="23"/>
@@ -4816,10 +4692,8 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="4" t="s">
-        <v>17</v>
-      </c>
+    <row r="27" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A27" s="4"/>
       <c r="B27" s="21"/>
       <c r="C27" s="22"/>
       <c r="D27" s="23"/>
@@ -4850,10 +4724,8 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="4" t="s">
-        <v>18</v>
-      </c>
+    <row r="28" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A28" s="4"/>
       <c r="B28" s="21"/>
       <c r="C28" s="22"/>
       <c r="D28" s="23"/>
@@ -4884,10 +4756,8 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="4" t="s">
-        <v>19</v>
-      </c>
+    <row r="29" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A29" s="4"/>
       <c r="B29" s="21"/>
       <c r="C29" s="22"/>
       <c r="D29" s="23"/>
@@ -4918,10 +4788,8 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="4" t="s">
-        <v>20</v>
-      </c>
+    <row r="30" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A30" s="4"/>
       <c r="B30" s="21"/>
       <c r="C30" s="22"/>
       <c r="D30" s="23"/>
@@ -4952,10 +4820,8 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="4" t="s">
-        <v>21</v>
-      </c>
+    <row r="31" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A31" s="4"/>
       <c r="B31" s="21"/>
       <c r="C31" s="22"/>
       <c r="D31" s="23"/>
@@ -4986,10 +4852,8 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="4" t="s">
-        <v>22</v>
-      </c>
+    <row r="32" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A32" s="4"/>
       <c r="B32" s="21"/>
       <c r="C32" s="22"/>
       <c r="D32" s="23"/>
@@ -5020,10 +4884,8 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="4" t="s">
-        <v>23</v>
-      </c>
+    <row r="33" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A33" s="4"/>
       <c r="B33" s="21"/>
       <c r="C33" s="22"/>
       <c r="D33" s="23"/>
@@ -5054,10 +4916,8 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="4" t="s">
-        <v>24</v>
-      </c>
+    <row r="34" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A34" s="4"/>
       <c r="B34" s="21"/>
       <c r="C34" s="22"/>
       <c r="D34" s="23"/>
@@ -5088,10 +4948,8 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="4" t="s">
-        <v>25</v>
-      </c>
+    <row r="35" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A35" s="4"/>
       <c r="B35" s="21"/>
       <c r="C35" s="22"/>
       <c r="D35" s="23"/>
@@ -5122,10 +4980,8 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="4" t="s">
-        <v>26</v>
-      </c>
+    <row r="36" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A36" s="4"/>
       <c r="B36" s="21"/>
       <c r="C36" s="22"/>
       <c r="D36" s="23"/>
@@ -5156,10 +5012,8 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="5" t="s">
-        <v>27</v>
-      </c>
+    <row r="37" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="A37" s="5"/>
       <c r="B37" s="24"/>
       <c r="C37" s="25"/>
       <c r="D37" s="26"/>
@@ -5190,13 +5044,13 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:24" ht="16.899999999999999" x14ac:dyDescent="0.6">
       <c r="A38" s="7" t="s">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="B38" s="10">
         <f>SUM(B8:B37)</f>
-        <v>123</v>
+        <v>68</v>
       </c>
       <c r="C38" s="11" t="e">
         <f>IFERROR(IF(B38-SUM(C8:C37)=B38,NA(),B38-SUM(C8:C37)),NA())</f>
@@ -5280,105 +5134,105 @@
       </c>
       <c r="W38" s="35">
         <f>SUM(W8:W37)</f>
-        <v>123</v>
+        <v>68</v>
       </c>
       <c r="X38" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A39" s="8" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="B39" s="12">
         <f>SUM(B8:B37)</f>
-        <v>123</v>
+        <v>68</v>
       </c>
       <c r="C39" s="13">
         <f>IFERROR((IF(B39-($B$38/$G$4) &lt; 0,"-", B39-($B$38/$G$4))),IFERROR(B39-($B$38/20),"-"))</f>
-        <v>116.85</v>
+        <v>64.599999999999994</v>
       </c>
       <c r="D39" s="13">
         <f t="shared" ref="D39:V39" si="3">IFERROR((IF(C39-($B$38/$G$4) &lt; 0,"-", C39-($B$38/$G$4))),IFERROR(C39-($B$38/20),"-"))</f>
-        <v>110.69999999999999</v>
+        <v>61.199999999999996</v>
       </c>
       <c r="E39" s="13">
         <f t="shared" si="3"/>
-        <v>104.54999999999998</v>
+        <v>57.8</v>
       </c>
       <c r="F39" s="13">
         <f t="shared" si="3"/>
-        <v>98.399999999999977</v>
+        <v>54.4</v>
       </c>
       <c r="G39" s="13">
         <f t="shared" si="3"/>
-        <v>92.249999999999972</v>
+        <v>51</v>
       </c>
       <c r="H39" s="13">
         <f t="shared" si="3"/>
-        <v>86.099999999999966</v>
+        <v>47.6</v>
       </c>
       <c r="I39" s="13">
         <f t="shared" si="3"/>
-        <v>79.94999999999996</v>
+        <v>44.2</v>
       </c>
       <c r="J39" s="13">
         <f t="shared" si="3"/>
-        <v>73.799999999999955</v>
+        <v>40.800000000000004</v>
       </c>
       <c r="K39" s="13">
         <f t="shared" si="3"/>
-        <v>67.649999999999949</v>
+        <v>37.400000000000006</v>
       </c>
       <c r="L39" s="13">
         <f t="shared" si="3"/>
-        <v>61.49999999999995</v>
+        <v>34.000000000000007</v>
       </c>
       <c r="M39" s="13">
         <f t="shared" si="3"/>
-        <v>55.349999999999952</v>
+        <v>30.600000000000009</v>
       </c>
       <c r="N39" s="13">
         <f t="shared" si="3"/>
-        <v>49.199999999999953</v>
+        <v>27.20000000000001</v>
       </c>
       <c r="O39" s="13">
         <f t="shared" si="3"/>
-        <v>43.049999999999955</v>
+        <v>23.800000000000011</v>
       </c>
       <c r="P39" s="13">
         <f t="shared" si="3"/>
-        <v>36.899999999999956</v>
+        <v>20.400000000000013</v>
       </c>
       <c r="Q39" s="13">
         <f t="shared" si="3"/>
-        <v>30.749999999999957</v>
+        <v>17.000000000000014</v>
       </c>
       <c r="R39" s="13">
         <f t="shared" si="3"/>
-        <v>24.599999999999959</v>
+        <v>13.600000000000014</v>
       </c>
       <c r="S39" s="13">
         <f t="shared" si="3"/>
-        <v>18.44999999999996</v>
+        <v>10.200000000000014</v>
       </c>
       <c r="T39" s="13">
         <f t="shared" si="3"/>
-        <v>12.29999999999996</v>
+        <v>6.8000000000000131</v>
       </c>
       <c r="U39" s="13">
         <f t="shared" si="3"/>
-        <v>6.1499999999999595</v>
+        <v>3.4000000000000132</v>
       </c>
       <c r="V39" s="13">
         <f t="shared" si="3"/>
-        <v>-4.0856207306205761E-14</v>
+        <v>1.3322676295501878E-14</v>
       </c>
       <c r="W39" s="31"/>
       <c r="X39" s="32"/>
     </row>
-    <row r="40" spans="1:24" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="40" spans="1:24" ht="14.65" thickTop="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="A1:B2"/>
@@ -5436,15 +5290,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ACA0E3D-6CA6-4BD2-BA12-8B619DAD9288}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="T37" sqref="T37"/>
+    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
+      <selection activeCell="AA36" sqref="AA36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" scale="61" orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Burndownchart_Mondpichl.xlsx
+++ b/Burndownchart_Mondpichl.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josip\Documents\5AHWII\SWP\CCC_Projekt\Ferienspass\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2ED8DBF0-DFDD-4ACE-B9F2-F8F52E641CEB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7209F91-5058-4A1B-9D32-3093946B7D7F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Current Iteration" sheetId="1" r:id="rId1"/>
@@ -262,7 +262,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="32">
+  <borders count="34">
     <border>
       <left/>
       <right/>
@@ -647,11 +647,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="dashed">
+        <color theme="4" tint="-0.499984740745262"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="4" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -761,6 +781,9 @@
     <xf numFmtId="14" fontId="5" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="5" fillId="4" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -771,6 +794,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -897,7 +923,7 @@
             <c:strRef>
               <c:f>'Current Iteration'!$B$7:$L$7</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>Beginning Balance</c:v>
                 </c:pt>
@@ -915,21 +941,6 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -939,7 +950,7 @@
               <c:f>'Current Iteration'!$B$38:$L$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>68</c:v>
                 </c:pt>
@@ -947,30 +958,15 @@
                   <c:v>30.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>#N/A</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="10">
                   <c:v>#N/A</c:v>
                 </c:pt>
               </c:numCache>
@@ -1030,7 +1026,7 @@
             <c:strRef>
               <c:f>'Current Iteration'!$B$7:$L$7</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>Beginning Balance</c:v>
                 </c:pt>
@@ -1048,21 +1044,6 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1072,39 +1053,24 @@
               <c:f>'Current Iteration'!$B$39:$L$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>64.599999999999994</c:v>
+                  <c:v>45.333333333333329</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>61.199999999999996</c:v>
+                  <c:v>22.666666666666661</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>57.8</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>54.4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>47.6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>44.2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>40.800000000000004</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>37.400000000000006</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>34.000000000000007</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1494,7 +1460,7 @@
             <c:strRef>
               <c:f>'Current Iteration'!$B$7:$L$7</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>Beginning Balance</c:v>
                 </c:pt>
@@ -1512,21 +1478,6 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1536,7 +1487,7 @@
               <c:f>'Current Iteration'!$B$38:$L$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>68</c:v>
                 </c:pt>
@@ -1544,30 +1495,15 @@
                   <c:v>30.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>#N/A</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="10">
                   <c:v>#N/A</c:v>
                 </c:pt>
               </c:numCache>
@@ -1668,7 +1604,7 @@
             <c:strRef>
               <c:f>'Current Iteration'!$B$7:$L$7</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>Beginning Balance</c:v>
                 </c:pt>
@@ -1686,21 +1622,6 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1710,39 +1631,24 @@
               <c:f>'Current Iteration'!$B$39:$L$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>64.599999999999994</c:v>
+                  <c:v>45.333333333333329</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>61.199999999999996</c:v>
+                  <c:v>22.666666666666661</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>57.8</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>54.4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>47.6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>44.2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>40.800000000000004</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>37.400000000000006</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>34.000000000000007</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3188,16 +3094,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>65485</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>66676</xdr:rowOff>
+      <xdr:rowOff>209552</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>1047750</xdr:colOff>
+      <xdr:colOff>2125265</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>1104900</xdr:rowOff>
+      <xdr:rowOff>392907</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3569,19 +3475,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N40"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="2" ySplit="7" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="C9" sqref="C9"/>
+      <selection pane="bottomRight" activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="70.73046875" customWidth="1"/>
     <col min="2" max="2" width="15.73046875" customWidth="1"/>
-    <col min="3" max="12" width="5.73046875" customWidth="1"/>
-    <col min="14" max="14" width="18.1328125" customWidth="1"/>
+    <col min="3" max="7" width="5.73046875" customWidth="1"/>
+    <col min="8" max="12" width="5.73046875" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="8.86328125" customWidth="1"/>
+    <col min="14" max="14" width="30.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
@@ -3603,15 +3511,15 @@
     <row r="2" spans="1:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A2" s="37"/>
       <c r="B2" s="37"/>
-      <c r="C2" s="40" t="s">
+      <c r="C2" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
       <c r="G2" s="33"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="45"/>
       <c r="J2" s="6"/>
       <c r="K2" s="6"/>
       <c r="L2" s="6"/>
@@ -3621,18 +3529,18 @@
     <row r="3" spans="1:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A3" s="34"/>
       <c r="B3" s="34"/>
-      <c r="C3" s="40" t="s">
+      <c r="C3" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
       <c r="G3" s="33">
         <f>B38</f>
         <v>68</v>
       </c>
-      <c r="H3" s="43"/>
-      <c r="I3" s="43"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="45"/>
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
@@ -3642,13 +3550,15 @@
     <row r="4" spans="1:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A4" s="34"/>
       <c r="B4" s="34"/>
-      <c r="C4" s="40" t="s">
+      <c r="C4" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="33"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="33">
+        <v>3</v>
+      </c>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
@@ -3676,10 +3586,10 @@
       <c r="N5" s="16"/>
     </row>
     <row r="6" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="39"/>
+      <c r="B6" s="40"/>
       <c r="C6" s="38" t="s">
         <v>8</v>
       </c>
@@ -3691,11 +3601,11 @@
       <c r="I6" s="38"/>
       <c r="J6" s="38"/>
       <c r="K6" s="38"/>
-      <c r="L6" s="38"/>
-      <c r="M6" s="41" t="s">
+      <c r="L6" s="39"/>
+      <c r="M6" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="N6" s="42"/>
+      <c r="N6" s="43"/>
     </row>
     <row r="7" spans="1:14" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A7" s="1" t="s">
@@ -3751,8 +3661,12 @@
       <c r="C8" s="19">
         <v>25</v>
       </c>
-      <c r="D8" s="20"/>
-      <c r="E8" s="19"/>
+      <c r="D8" s="20">
+        <v>9</v>
+      </c>
+      <c r="E8" s="19">
+        <v>0</v>
+      </c>
       <c r="F8" s="20"/>
       <c r="G8" s="19"/>
       <c r="H8" s="20"/>
@@ -3762,11 +3676,11 @@
       <c r="L8" s="20"/>
       <c r="M8" s="27">
         <f t="shared" ref="M8:M37" si="0">B8-SUM(C8:L8)</f>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="N8" s="17">
         <f t="shared" ref="N8:N38" si="1">IFERROR(1-(M8/B8),"")</f>
-        <v>0.73529411764705888</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.6">
@@ -3779,8 +3693,12 @@
       <c r="C9" s="22">
         <v>12.5</v>
       </c>
-      <c r="D9" s="23"/>
-      <c r="E9" s="22"/>
+      <c r="D9" s="23">
+        <v>18.5</v>
+      </c>
+      <c r="E9" s="22">
+        <v>3</v>
+      </c>
       <c r="F9" s="23"/>
       <c r="G9" s="22"/>
       <c r="H9" s="23"/>
@@ -3790,11 +3708,11 @@
       <c r="L9" s="23"/>
       <c r="M9" s="28">
         <f t="shared" si="0"/>
-        <v>21.5</v>
+        <v>0</v>
       </c>
       <c r="N9" s="17">
         <f t="shared" si="1"/>
-        <v>0.36764705882352944</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.6">
@@ -4425,13 +4343,13 @@
         <f>IFERROR(IF(B38-SUM(C8:C37)=B38,NA(),B38-SUM(C8:C37)),NA())</f>
         <v>30.5</v>
       </c>
-      <c r="D38" s="11" t="e">
+      <c r="D38" s="11">
         <f t="shared" ref="D38:L38" si="2">IFERROR(IF(C38-SUM(D8:D37)=C38,NA(),C38-SUM(D8:D37)),NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E38" s="11" t="e">
+        <v>3</v>
+      </c>
+      <c r="E38" s="11">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="F38" s="11" t="e">
         <f t="shared" si="2"/>
@@ -4463,11 +4381,11 @@
       </c>
       <c r="M38" s="35">
         <f>SUM(M8:M37)</f>
-        <v>30.5</v>
+        <v>0</v>
       </c>
       <c r="N38" s="30">
         <f t="shared" si="1"/>
-        <v>0.55147058823529416</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
@@ -4479,44 +4397,44 @@
         <v>68</v>
       </c>
       <c r="C39" s="13">
-        <f>IFERROR((IF(B39-($B$38/$G$4) &lt; 0,"-", B39-($B$38/$G$4))),IFERROR(B39-($B$38/20),"-"))</f>
-        <v>64.599999999999994</v>
+        <f t="shared" ref="C39:L39" si="3">IFERROR((IF(B39-($B$38/$G$4) &lt; 0,"-", B39-($B$38/$G$4))),IFERROR(B39-($B$38/20),"-"))</f>
+        <v>45.333333333333329</v>
       </c>
       <c r="D39" s="13">
-        <f t="shared" ref="D39:L39" si="3">IFERROR((IF(C39-($B$38/$G$4) &lt; 0,"-", C39-($B$38/$G$4))),IFERROR(C39-($B$38/20),"-"))</f>
-        <v>61.199999999999996</v>
-      </c>
-      <c r="E39" s="13">
         <f t="shared" si="3"/>
-        <v>57.8</v>
-      </c>
-      <c r="F39" s="13">
+        <v>22.666666666666661</v>
+      </c>
+      <c r="E39" s="13" t="str">
         <f t="shared" si="3"/>
-        <v>54.4</v>
-      </c>
-      <c r="G39" s="13">
+        <v>-</v>
+      </c>
+      <c r="F39" s="13" t="str">
         <f t="shared" si="3"/>
-        <v>51</v>
-      </c>
-      <c r="H39" s="13">
+        <v>-</v>
+      </c>
+      <c r="G39" s="13" t="str">
         <f t="shared" si="3"/>
-        <v>47.6</v>
-      </c>
-      <c r="I39" s="13">
+        <v>-</v>
+      </c>
+      <c r="H39" s="13" t="str">
         <f t="shared" si="3"/>
-        <v>44.2</v>
-      </c>
-      <c r="J39" s="13">
+        <v>-</v>
+      </c>
+      <c r="I39" s="13" t="str">
         <f t="shared" si="3"/>
-        <v>40.800000000000004</v>
-      </c>
-      <c r="K39" s="13">
+        <v>-</v>
+      </c>
+      <c r="J39" s="13" t="str">
         <f t="shared" si="3"/>
-        <v>37.400000000000006</v>
-      </c>
-      <c r="L39" s="13">
+        <v>-</v>
+      </c>
+      <c r="K39" s="13" t="str">
         <f t="shared" si="3"/>
-        <v>34.000000000000007</v>
+        <v>-</v>
+      </c>
+      <c r="L39" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v>-</v>
       </c>
       <c r="M39" s="31"/>
       <c r="N39" s="32"/>
@@ -4584,8 +4502,8 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AB12" sqref="AB12"/>
+    <sheetView topLeftCell="A3" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
+      <selection activeCell="AA28" sqref="AA28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
